--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="autoupEngine" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>猜拳ios</t>
   </si>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>consoleUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contextName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +328,21 @@
   </si>
   <si>
     <t>handleIndexs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台场景刷新</t>
+  </si>
+  <si>
+    <t>控制台场景刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consoleUiUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consoleGameUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,9 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -728,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -762,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -779,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -815,7 +826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -833,80 +844,80 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -920,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -949,11 +960,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -965,10 +976,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -976,15 +987,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1001,6 +1012,14 @@
       </c>
       <c r="B5" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1035,7 +1054,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1043,7 +1062,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1051,7 +1070,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1059,7 +1078,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1067,7 +1086,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
@@ -1075,7 +1094,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
@@ -1090,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,10 +1125,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1125,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1146,10 +1165,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1194,26 +1221,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1288,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1314,27 +1341,36 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="autoupEngine" sheetId="6" r:id="rId1"/>
@@ -332,18 +332,18 @@
   </si>
   <si>
     <t>控制台场景刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consoleUiUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consoleGameUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制台场景刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consoleUiUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consoleGameUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,9 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -964,7 +964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1111,9 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1341,15 +1341,15 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="autoupEngine" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>猜拳ios</t>
   </si>
@@ -344,6 +344,17 @@
   </si>
   <si>
     <t>控制台场景刷新</t>
+  </si>
+  <si>
+    <t>帐号更新</t>
+  </si>
+  <si>
+    <t>帐号更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1109,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1173,9 +1184,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1315,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1362,9 +1381,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
     </row>

--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="autoupEngine" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>猜拳ios</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/api/autoup/lastupdate/?nOperatorName=%1%&amp;nVersionNo=%2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isJson</t>
   </si>
   <si>
@@ -354,6 +350,14 @@
   </si>
   <si>
     <t>accountUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜拳ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/api/autoup/lastupdate/?nAppType=%1%&amp;nOperatorName=%2%&amp;nVersionNo=%3%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,9 +401,10 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="新宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,10 +446,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,9 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -741,58 +746,58 @@
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="64.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="76" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -801,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -809,8 +814,8 @@
       <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -853,82 +858,82 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -942,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -985,28 +990,28 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1057,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1065,7 +1070,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1073,7 +1078,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1081,7 +1086,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1089,7 +1094,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1097,7 +1102,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
@@ -1105,7 +1110,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
@@ -1122,9 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1134,33 +1139,33 @@
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1168,7 +1173,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1176,7 +1181,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1184,7 +1189,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1192,7 +1197,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1240,26 +1245,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1291,7 +1296,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1308,19 +1313,19 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1349,50 +1354,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -54,9 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iosfigus</t>
-  </si>
-  <si>
     <t>operatorName.j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,22 +339,26 @@
     <t>控制台场景刷新</t>
   </si>
   <si>
-    <t>帐号更新</t>
-  </si>
-  <si>
-    <t>帐号更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猜拳ios</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/api/autoup/lastupdate/?nAppType=%1%&amp;nOperatorName=%2%&amp;nVersionNo=%3%</t>
+    <t>figusclient_win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色更新</t>
+  </si>
+  <si>
+    <t>角色更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/api/autoup/lastupdate/?nOperatorName=%1%&amp;nVersionNo=%2%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +402,9 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -737,68 +737,68 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="76" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -842,7 +842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -860,80 +860,80 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -992,26 +992,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1062,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1102,18 +1102,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1141,31 +1141,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1240,31 +1240,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1313,22 +1313,22 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1354,50 +1354,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/setting/基础配置.xlsx
+++ b/gameTb/client/setting/基础配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5565" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="autoupEngine" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>猜拳ios</t>
   </si>
@@ -284,18 +284,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updateNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>curl更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +351,26 @@
   </si>
   <si>
     <t>http://localhost/api/autoup/lastupdate/?nOperatorName=%1%&amp;nVersionNo=%2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新低位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -815,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -838,105 +850,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -946,11 +967,11 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -959,13 +980,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>isJsonk</formula1>
     </dataValidation>
   </dataValidations>
@@ -1144,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1189,7 +1213,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1197,7 +1221,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1325,10 +1349,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1365,15 +1389,15 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1386,18 +1410,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
